--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>15</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>15</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>6</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>15</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>7</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>15</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>8</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>15</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>9</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>15</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>10</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>15</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>11</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -24469,57 +24469,57 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B463" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E463" t="inlineStr">
+      <c r="E463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" t="inlineStr">
+      <c r="F463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G463" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" t="b">
-        <v>1</v>
-      </c>
-      <c r="J463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K463" t="b">
-        <v>1</v>
-      </c>
-      <c r="L463" t="inlineStr">
+      <c r="G463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,81 +24445,81 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>38</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B463" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C463" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
+      <c r="F463" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G463" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L463" s="2" t="inlineStr">
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K463" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
